--- a/Расчёты/ДетМаш.xlsx
+++ b/Расчёты/ДетМаш.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\main\МГТУ\6 сем\ДетМаш Курсач\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\main\GitHub\reductor\reductor\Расчёты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D873C6DF-292E-47AF-8B56-7B55743EDE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A5610C-B828-4F71-BB77-D33AD5B23A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="239">
   <si>
     <t>Параметр</t>
   </si>
@@ -1010,7 +1008,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1319,7 +1317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1385,7 +1383,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1394,9 +1392,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1699,19 +1706,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH186"/>
+  <dimension ref="A1:AH193"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F129" sqref="F129"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="60.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="6" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
@@ -1724,7 +1731,7 @@
     <col min="31" max="31" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1750,7 +1757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1771,7 +1778,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1811,14 +1818,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="51">
         <v>0</v>
       </c>
       <c r="D4" s="52"/>
@@ -1827,22 +1834,22 @@
       <c r="G4" s="52"/>
       <c r="H4" s="53"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="51">
         <v>7</v>
       </c>
       <c r="D5" s="53"/>
-      <c r="E5" s="54">
+      <c r="E5" s="51">
         <v>7</v>
       </c>
       <c r="F5" s="53"/>
-      <c r="G5" s="54">
+      <c r="G5" s="51">
         <v>7</v>
       </c>
       <c r="H5" s="53"/>
@@ -1857,7 +1864,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1898,7 +1905,7 @@
         <v>457.14285714285717</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1936,14 +1943,14 @@
         <v>65.863375600834956</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="51" t="s">
         <v>170</v>
       </c>
       <c r="D8" s="52"/>
@@ -1961,47 +1968,47 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="51" t="s">
         <v>171</v>
       </c>
       <c r="D9" s="53"/>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="54" t="s">
         <v>171</v>
       </c>
       <c r="F9" s="53"/>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="54" t="s">
         <v>171</v>
       </c>
       <c r="H9" s="53"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="51" t="s">
         <v>173</v>
       </c>
       <c r="D10" s="53"/>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="51" t="s">
         <v>173</v>
       </c>
       <c r="F10" s="53"/>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="51" t="s">
         <v>173</v>
       </c>
       <c r="H10" s="53"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2043,7 +2050,7 @@
         <v>115.2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2075,7 +2082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2116,7 +2123,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2158,7 +2165,7 @@
         <v>6.9407747928586572</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -2194,14 +2201,14 @@
         <v>2.634535024033398</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="51" t="s">
         <v>208</v>
       </c>
       <c r="D16" s="52"/>
@@ -2210,14 +2217,14 @@
       <c r="G16" s="52"/>
       <c r="H16" s="53"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="54" t="s">
         <v>172</v>
       </c>
       <c r="D17" s="52"/>
@@ -2226,7 +2233,7 @@
       <c r="G17" s="52"/>
       <c r="H17" s="53"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -2262,7 +2269,7 @@
         <v>13.263888888888889</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -2284,7 +2291,7 @@
         <v>81.891249999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2320,7 +2327,7 @@
         <v>557.02094928057284</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="B21" s="3" t="s">
         <v>93</v>
       </c>
@@ -2353,7 +2360,7 @@
         <v>1438.141376</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -2379,7 +2386,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="B23" t="s">
         <v>95</v>
       </c>
@@ -2402,7 +2409,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2437,7 +2444,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2469,7 +2476,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2495,7 +2502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2521,7 +2528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="B28" s="3" t="s">
         <v>99</v>
       </c>
@@ -2544,7 +2551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -2576,7 +2583,7 @@
         <v>0.9943656740765191</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="B30" t="s">
         <v>102</v>
       </c>
@@ -2605,7 +2612,7 @@
         <v>0.71475377223840897</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -2631,7 +2638,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2657,7 +2664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="B33" t="s">
         <v>104</v>
       </c>
@@ -2680,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2706,7 +2713,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2732,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2764,7 +2771,7 @@
         <v>475.00083353962953</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="B37" t="s">
         <v>108</v>
       </c>
@@ -2793,7 +2800,7 @@
         <v>150.30851386778306</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2829,7 +2836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2861,7 +2868,7 @@
         <v>404.18206862715385</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12">
       <c r="B40" t="s">
         <v>111</v>
       </c>
@@ -2890,7 +2897,7 @@
         <v>115.10886213225292</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -2902,7 +2909,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2937,7 +2944,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2975,7 +2982,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12">
       <c r="B44" t="s">
         <v>114</v>
       </c>
@@ -3002,7 +3009,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3034,7 +3041,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3066,7 +3073,7 @@
         <v>276.64927816848086</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3098,7 +3105,7 @@
         <v>87.144522623071467</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3130,7 +3137,7 @@
         <v>401.06489985043186</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15">
       <c r="A49" s="33" t="s">
         <v>47</v>
       </c>
@@ -3162,7 +3169,7 @@
         <v>8.9549209697958716</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3194,7 +3201,7 @@
         <v>0.52495405739585332</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3226,7 +3233,7 @@
         <v>7317.9737271811518</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -3255,7 +3262,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15">
       <c r="B53" t="s">
         <v>123</v>
       </c>
@@ -3278,7 +3285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -3304,7 +3311,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15">
       <c r="B55" s="3" t="s">
         <v>125</v>
       </c>
@@ -3327,7 +3334,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -3359,7 +3366,7 @@
         <v>1.005029854533479</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15">
       <c r="B57" s="3" t="s">
         <v>127</v>
       </c>
@@ -3392,7 +3399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>128</v>
       </c>
@@ -3424,7 +3431,7 @@
         <v>1.3758235313967981</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15">
       <c r="B59" t="s">
         <v>130</v>
       </c>
@@ -3449,7 +3456,7 @@
         <v>1.3758235313967981</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15">
       <c r="A60" s="33" t="s">
         <v>53</v>
       </c>
@@ -3499,7 +3506,7 @@
         <v>308.20766838183499</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15">
       <c r="A61" s="33" t="s">
         <v>45</v>
       </c>
@@ -3531,7 +3538,7 @@
         <v>99.224999999999994</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
         <v>46</v>
       </c>
@@ -3563,7 +3570,7 @@
         <v>456.66283421837488</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -3596,7 +3603,7 @@
       </c>
       <c r="J63" s="18"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -3622,7 +3629,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:34">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -3654,7 +3661,7 @@
         <v>1.0609155853303165</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:34">
       <c r="B66" t="s">
         <v>119</v>
       </c>
@@ -3683,7 +3690,7 @@
         <v>10.196303869507361</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:34">
       <c r="A67" s="1" t="s">
         <v>56</v>
       </c>
@@ -3728,7 +3735,7 @@
       <c r="AG67" s="11"/>
       <c r="AH67" s="11"/>
     </row>
-    <row r="68" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:34" hidden="1">
       <c r="A68" t="s">
         <v>57</v>
       </c>
@@ -3775,7 +3782,7 @@
       <c r="AG68" s="20"/>
       <c r="AH68" s="20"/>
     </row>
-    <row r="69" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:34" hidden="1">
       <c r="A69" t="s">
         <v>58</v>
       </c>
@@ -3828,7 +3835,7 @@
       <c r="AG69" s="20"/>
       <c r="AH69" s="20"/>
     </row>
-    <row r="70" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:34" hidden="1">
       <c r="A70" t="s">
         <v>59</v>
       </c>
@@ -3881,7 +3888,7 @@
       <c r="AG70" s="20"/>
       <c r="AH70" s="20"/>
     </row>
-    <row r="71" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:34" hidden="1">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -3913,7 +3920,7 @@
         <v>2.6206896551724137</v>
       </c>
     </row>
-    <row r="72" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:34" hidden="1">
       <c r="A72" s="20" t="s">
         <v>57</v>
       </c>
@@ -3927,7 +3934,7 @@
       <c r="G72" s="21"/>
       <c r="H72" s="22"/>
     </row>
-    <row r="73" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:34" hidden="1">
       <c r="A73" s="20" t="s">
         <v>58</v>
       </c>
@@ -3941,7 +3948,7 @@
       <c r="G73" s="23"/>
       <c r="H73" s="23"/>
     </row>
-    <row r="74" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:34" hidden="1">
       <c r="A74" s="20" t="s">
         <v>59</v>
       </c>
@@ -3955,7 +3962,7 @@
       <c r="G74" s="21"/>
       <c r="H74" s="22"/>
     </row>
-    <row r="75" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:34" hidden="1">
       <c r="A75" s="20" t="s">
         <v>16</v>
       </c>
@@ -3990,7 +3997,7 @@
       <c r="AG75" s="20"/>
       <c r="AH75" s="20"/>
     </row>
-    <row r="76" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:34" hidden="1">
       <c r="A76" s="20" t="s">
         <v>57</v>
       </c>
@@ -4025,7 +4032,7 @@
       <c r="AG76" s="20"/>
       <c r="AH76" s="20"/>
     </row>
-    <row r="77" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:34" hidden="1">
       <c r="A77" s="20" t="s">
         <v>58</v>
       </c>
@@ -4060,7 +4067,7 @@
       <c r="AG77" s="20"/>
       <c r="AH77" s="20"/>
     </row>
-    <row r="78" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:34" hidden="1">
       <c r="A78" s="20" t="s">
         <v>59</v>
       </c>
@@ -4095,7 +4102,7 @@
       <c r="AG78" s="20"/>
       <c r="AH78" s="20"/>
     </row>
-    <row r="79" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:34" hidden="1">
       <c r="A79" s="20" t="s">
         <v>16</v>
       </c>
@@ -4109,7 +4116,7 @@
       <c r="G79" s="21"/>
       <c r="H79" s="22"/>
     </row>
-    <row r="80" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:34" hidden="1">
       <c r="A80" s="20" t="s">
         <v>57</v>
       </c>
@@ -4123,7 +4130,7 @@
       <c r="G80" s="21"/>
       <c r="H80" s="22"/>
     </row>
-    <row r="81" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:34" hidden="1">
       <c r="A81" s="20" t="s">
         <v>58</v>
       </c>
@@ -4158,7 +4165,7 @@
       <c r="AG81" s="11"/>
       <c r="AH81" s="11"/>
     </row>
-    <row r="82" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:34" hidden="1">
       <c r="A82" s="20" t="s">
         <v>59</v>
       </c>
@@ -4185,7 +4192,7 @@
       <c r="U82" s="19"/>
       <c r="V82" s="19"/>
     </row>
-    <row r="83" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:34" hidden="1">
       <c r="A83" s="20" t="s">
         <v>16</v>
       </c>
@@ -4212,7 +4219,7 @@
       <c r="U83" s="19"/>
       <c r="V83" s="19"/>
     </row>
-    <row r="84" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:34" hidden="1">
       <c r="A84" t="s">
         <v>60</v>
       </c>
@@ -4257,7 +4264,7 @@
       <c r="U84" s="19"/>
       <c r="V84" s="19"/>
     </row>
-    <row r="85" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:34" hidden="1">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -4289,7 +4296,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:34" hidden="1">
       <c r="A86" t="s">
         <v>61</v>
       </c>
@@ -4321,7 +4328,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:34" hidden="1">
       <c r="A87" t="s">
         <v>62</v>
       </c>
@@ -4353,7 +4360,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="88" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:34" hidden="1">
       <c r="A88" t="s">
         <v>63</v>
       </c>
@@ -4385,7 +4392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:34" hidden="1">
       <c r="B89" t="s">
         <v>145</v>
       </c>
@@ -4414,7 +4421,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="90" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:34" hidden="1">
       <c r="A90" t="s">
         <v>64</v>
       </c>
@@ -4446,7 +4453,7 @@
         <v>1.1946264467561161E+20</v>
       </c>
     </row>
-    <row r="91" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:34" hidden="1">
       <c r="A91" t="s">
         <v>65</v>
       </c>
@@ -4460,7 +4467,7 @@
       <c r="G91" s="9"/>
       <c r="H91" s="10"/>
     </row>
-    <row r="92" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:34" hidden="1">
       <c r="A92" t="s">
         <v>66</v>
       </c>
@@ -4474,7 +4481,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:34" hidden="1">
       <c r="A93" t="s">
         <v>67</v>
       </c>
@@ -4488,7 +4495,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:34" hidden="1">
       <c r="A94" t="s">
         <v>68</v>
       </c>
@@ -4502,7 +4509,7 @@
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
     </row>
-    <row r="95" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:34" hidden="1">
       <c r="B95" t="s">
         <v>151</v>
       </c>
@@ -4513,7 +4520,7 @@
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
     </row>
-    <row r="96" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:34" hidden="1">
       <c r="A96" t="s">
         <v>69</v>
       </c>
@@ -4527,7 +4534,7 @@
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" hidden="1">
       <c r="B97" t="s">
         <v>153</v>
       </c>
@@ -4538,7 +4545,7 @@
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
     </row>
-    <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" ht="15" thickBot="1">
       <c r="A98" s="30" t="s">
         <v>70</v>
       </c>
@@ -4558,7 +4565,7 @@
       </c>
       <c r="H98" s="30"/>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" hidden="1">
       <c r="A99" t="s">
         <v>57</v>
       </c>
@@ -4572,7 +4579,7 @@
       <c r="G99" s="6"/>
       <c r="H99" s="26"/>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" hidden="1">
       <c r="A100" t="s">
         <v>86</v>
       </c>
@@ -4586,7 +4593,7 @@
       <c r="G100" s="8"/>
       <c r="H100" s="10"/>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" hidden="1">
       <c r="B101" t="s">
         <v>154</v>
       </c>
@@ -4597,7 +4604,7 @@
       <c r="G101" s="8"/>
       <c r="H101" s="10"/>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" hidden="1">
       <c r="A102" t="s">
         <v>71</v>
       </c>
@@ -4611,7 +4618,7 @@
       <c r="G102" s="8"/>
       <c r="H102" s="10"/>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" hidden="1">
       <c r="B103" t="s">
         <v>156</v>
       </c>
@@ -4622,7 +4629,7 @@
       <c r="G103" s="8"/>
       <c r="H103" s="10"/>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" hidden="1">
       <c r="A104" t="s">
         <v>58</v>
       </c>
@@ -4636,7 +4643,7 @@
       <c r="G104" s="8"/>
       <c r="H104" s="10"/>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" hidden="1">
       <c r="A105" t="s">
         <v>59</v>
       </c>
@@ -4650,7 +4657,7 @@
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" hidden="1">
       <c r="A106" t="s">
         <v>16</v>
       </c>
@@ -4664,7 +4671,7 @@
       <c r="G106" s="8"/>
       <c r="H106" s="10"/>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" hidden="1">
       <c r="A107" t="s">
         <v>57</v>
       </c>
@@ -4678,7 +4685,7 @@
       <c r="G107" s="8"/>
       <c r="H107" s="10"/>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" hidden="1">
       <c r="A108" t="s">
         <v>86</v>
       </c>
@@ -4692,7 +4699,7 @@
       <c r="G108" s="8"/>
       <c r="H108" s="10"/>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" hidden="1">
       <c r="B109" t="s">
         <v>154</v>
       </c>
@@ -4703,7 +4710,7 @@
       <c r="G109" s="8"/>
       <c r="H109" s="10"/>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" hidden="1">
       <c r="A110" t="s">
         <v>71</v>
       </c>
@@ -4717,7 +4724,7 @@
       <c r="G110" s="8"/>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" hidden="1">
       <c r="B111" t="s">
         <v>156</v>
       </c>
@@ -4728,7 +4735,7 @@
       <c r="G111" s="8"/>
       <c r="H111" s="10"/>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" hidden="1">
       <c r="A112" t="s">
         <v>58</v>
       </c>
@@ -4742,7 +4749,7 @@
       <c r="G112" s="8"/>
       <c r="H112" s="10"/>
     </row>
-    <row r="113" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:34" hidden="1">
       <c r="A113" t="s">
         <v>59</v>
       </c>
@@ -4756,7 +4763,7 @@
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
     </row>
-    <row r="114" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:34" hidden="1">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -4770,7 +4777,7 @@
       <c r="G114" s="8"/>
       <c r="H114" s="10"/>
     </row>
-    <row r="115" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:34" hidden="1">
       <c r="A115" t="s">
         <v>57</v>
       </c>
@@ -4784,7 +4791,7 @@
       <c r="G115" s="8"/>
       <c r="H115" s="10"/>
     </row>
-    <row r="116" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:34" hidden="1">
       <c r="A116" t="s">
         <v>86</v>
       </c>
@@ -4798,7 +4805,7 @@
       <c r="G116" s="8"/>
       <c r="H116" s="10"/>
     </row>
-    <row r="117" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:34" hidden="1">
       <c r="B117" t="s">
         <v>154</v>
       </c>
@@ -4809,7 +4816,7 @@
       <c r="G117" s="8"/>
       <c r="H117" s="10"/>
     </row>
-    <row r="118" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:34" hidden="1">
       <c r="A118" t="s">
         <v>71</v>
       </c>
@@ -4823,7 +4830,7 @@
       <c r="G118" s="8"/>
       <c r="H118" s="10"/>
     </row>
-    <row r="119" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:34" hidden="1">
       <c r="B119" t="s">
         <v>156</v>
       </c>
@@ -4834,7 +4841,7 @@
       <c r="G119" s="8"/>
       <c r="H119" s="10"/>
     </row>
-    <row r="120" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:34" hidden="1">
       <c r="A120" t="s">
         <v>58</v>
       </c>
@@ -4848,7 +4855,7 @@
       <c r="G120" s="8"/>
       <c r="H120" s="10"/>
     </row>
-    <row r="121" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:34" hidden="1">
       <c r="A121" t="s">
         <v>59</v>
       </c>
@@ -4862,7 +4869,7 @@
       <c r="G121" s="7"/>
       <c r="H121" s="7"/>
     </row>
-    <row r="122" spans="1:34" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:34" hidden="1">
       <c r="A122" t="s">
         <v>16</v>
       </c>
@@ -4876,7 +4883,7 @@
       <c r="G122" s="8"/>
       <c r="H122" s="10"/>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:34">
       <c r="A123" s="18" t="s">
         <v>57</v>
       </c>
@@ -4909,7 +4916,7 @@
       </c>
       <c r="AH123" s="11"/>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:34">
       <c r="A124" s="18" t="s">
         <v>86</v>
       </c>
@@ -4929,7 +4936,7 @@
       </c>
       <c r="H124" s="10"/>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:34">
       <c r="A125" s="18"/>
       <c r="B125" s="18" t="s">
         <v>154</v>
@@ -4977,7 +4984,7 @@
       <c r="AF125" s="11"/>
       <c r="AG125" s="11"/>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:34">
       <c r="A126" s="18" t="s">
         <v>71</v>
       </c>
@@ -5007,7 +5014,7 @@
       </c>
       <c r="J126" s="18"/>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:34">
       <c r="A127" s="18"/>
       <c r="B127" s="18" t="s">
         <v>156</v>
@@ -5058,7 +5065,7 @@
       <c r="AF127" s="32"/>
       <c r="AG127" s="32"/>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:34">
       <c r="A128" s="18" t="s">
         <v>58</v>
       </c>
@@ -5087,7 +5094,7 @@
       </c>
       <c r="J128" s="18"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10">
       <c r="A129" s="18" t="s">
         <v>59</v>
       </c>
@@ -5114,7 +5121,7 @@
       </c>
       <c r="J129" s="18"/>
     </row>
-    <row r="130" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" ht="15" thickBot="1">
       <c r="A130" s="27" t="s">
         <v>16</v>
       </c>
@@ -5135,7 +5142,7 @@
       <c r="H130" s="29"/>
       <c r="J130" s="18"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
         <v>88</v>
       </c>
@@ -5167,7 +5174,7 @@
         <v>5.1060031729699729</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
         <v>87</v>
       </c>
@@ -5199,7 +5206,7 @@
         <v>20.073330360565659</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
         <v>63</v>
       </c>
@@ -5225,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
         <v>64</v>
       </c>
@@ -5264,7 +5271,7 @@
         <v>0.36397023426620234</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
         <v>65</v>
       </c>
@@ -5296,7 +5303,7 @@
         <v>574.27525669408305</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10">
       <c r="A136" s="33" t="s">
         <v>66</v>
       </c>
@@ -5328,7 +5335,7 @@
         <v>456.81274900398404</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
         <v>67</v>
       </c>
@@ -5360,7 +5367,7 @@
         <v>429.06325413561598</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10">
       <c r="A138" s="33" t="s">
         <v>68</v>
       </c>
@@ -5392,7 +5399,7 @@
         <v>461.81274900398404</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10">
       <c r="B139" t="s">
         <v>166</v>
       </c>
@@ -5412,7 +5419,7 @@
         <v>452.81274900398404</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10">
       <c r="A140" t="s">
         <v>69</v>
       </c>
@@ -5444,7 +5451,7 @@
         <v>450.56274900398404</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" ht="15" thickBot="1">
       <c r="A141" s="27"/>
       <c r="B141" s="27" t="s">
         <v>168</v>
@@ -5465,7 +5472,7 @@
         <v>463.06274900398404</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10">
       <c r="C142">
         <f>C136+D136</f>
         <v>670</v>
@@ -5479,7 +5486,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10">
       <c r="A143" t="s">
         <v>230</v>
       </c>
@@ -5488,7 +5495,7 @@
         <v>18.937106083236799</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10">
       <c r="A144" s="18" t="s">
         <v>231</v>
       </c>
@@ -5500,7 +5507,7 @@
       <c r="G144" s="18"/>
       <c r="H144" s="18"/>
     </row>
-    <row r="145" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" ht="15" thickBot="1">
       <c r="A145" s="27" t="s">
         <v>232</v>
       </c>
@@ -5527,7 +5534,7 @@
         <v>3.125</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8">
       <c r="A146" s="32" t="s">
         <v>233</v>
       </c>
@@ -5542,7 +5549,7 @@
         <v>57.595499584406447</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" ht="15" thickBot="1">
       <c r="A147" s="32" t="s">
         <v>234</v>
       </c>
@@ -5554,7 +5561,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8">
       <c r="A148" s="32" t="s">
         <v>232</v>
       </c>
@@ -5566,7 +5573,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" ht="15" thickBot="1">
       <c r="A149" s="44" t="s">
         <v>231</v>
       </c>
@@ -5583,7 +5590,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8">
       <c r="A150" s="32" t="s">
         <v>230</v>
       </c>
@@ -5612,22 +5619,48 @@
         <v>79.013002825155752</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8">
       <c r="A151" s="32" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8">
       <c r="A152" s="32" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8">
       <c r="A153" s="32" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8">
+      <c r="C154">
+        <f>C62/2</f>
+        <v>45.890410958904113</v>
+      </c>
+      <c r="D154">
+        <f t="shared" ref="D154:H154" si="33">D62/2</f>
+        <v>289.10958904109589</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="33"/>
+        <v>44.705965004732363</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="33"/>
+        <v>310.29403499526762</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="33"/>
+        <v>86.668582890812573</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="33"/>
+        <v>228.33141710918744</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>221</v>
       </c>
@@ -5636,14 +5669,14 @@
         <v>7.3897822478225859</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8">
       <c r="C157">
         <f>1.25*(H13)^(1/3)</f>
         <v>14.109464790206383</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" ht="15" thickBot="1"/>
+    <row r="159" spans="1:8">
       <c r="A159" s="1" t="s">
         <v>223</v>
       </c>
@@ -5659,23 +5692,23 @@
         <v>289.03399668325039</v>
       </c>
       <c r="E159" s="36">
-        <f t="shared" ref="E159:H159" si="33">E63</f>
+        <f t="shared" ref="E159:H159" si="34">E63</f>
         <v>1831.7745739596803</v>
       </c>
       <c r="F159" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1831.7745739596803</v>
       </c>
       <c r="G159" s="42">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>6427.0226961288026</v>
       </c>
       <c r="H159" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>6427.0226961288026</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8">
       <c r="B160" t="s">
         <v>225</v>
       </c>
@@ -5684,27 +5717,27 @@
         <v>106.31047796995264</v>
       </c>
       <c r="D160" s="18">
-        <f t="shared" ref="D160:H160" si="34">D134</f>
+        <f t="shared" ref="D160:H160" si="35">D134</f>
         <v>106.31047796995264</v>
       </c>
       <c r="E160" s="38">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>671.43987059993503</v>
       </c>
       <c r="F160" s="39">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>671.43987059993503</v>
       </c>
       <c r="G160" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2348.5646573654913</v>
       </c>
       <c r="H160" s="39">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2348.5646573654913</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" ht="15" thickBot="1">
       <c r="B161" t="s">
         <v>147</v>
       </c>
@@ -5713,27 +5746,27 @@
         <v>42.111382032175023</v>
       </c>
       <c r="D161" s="27">
-        <f t="shared" ref="D161:H161" si="35">D135</f>
+        <f t="shared" ref="D161:H161" si="36">D135</f>
         <v>42.111382032175023</v>
       </c>
       <c r="E161" s="40">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>218.54764527814046</v>
       </c>
       <c r="F161" s="41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>218.54764527814046</v>
       </c>
       <c r="G161" s="27">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>574.27525669408305</v>
       </c>
       <c r="H161" s="41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>574.27525669408305</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8">
       <c r="A163" s="1" t="s">
         <v>226</v>
       </c>
@@ -5744,7 +5777,7 @@
         <v>1051.1600000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8">
       <c r="B164" t="s">
         <v>228</v>
       </c>
@@ -5756,7 +5789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8">
       <c r="B165" t="s">
         <v>229</v>
       </c>
@@ -5765,10 +5798,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8">
       <c r="C167" s="6"/>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" hidden="1">
       <c r="A169" t="s">
         <v>218</v>
       </c>
@@ -5797,7 +5830,7 @@
         <v>67.725430992990638</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" hidden="1">
       <c r="A170" s="32"/>
       <c r="B170" s="32"/>
       <c r="C170" s="32" t="s">
@@ -5809,7 +5842,7 @@
       <c r="G170" s="32"/>
       <c r="H170" s="32"/>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" hidden="1">
       <c r="B171" s="32"/>
       <c r="C171" s="32">
         <f>C140</f>
@@ -5836,41 +5869,41 @@
         <v>212.86733700164729</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" hidden="1">
       <c r="A172" s="32" t="s">
         <v>220</v>
       </c>
       <c r="B172" s="32"/>
       <c r="C172" s="32">
-        <f t="shared" ref="C172:H172" si="36">4*C123</f>
+        <f t="shared" ref="C172:H172" si="37">4*C123</f>
         <v>12</v>
       </c>
       <c r="D172" s="32">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>12</v>
       </c>
       <c r="E172" s="32">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>12</v>
       </c>
       <c r="F172" s="32">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>12</v>
       </c>
       <c r="G172" s="32">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="H172" s="32">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" hidden="1">
       <c r="A173" s="32"/>
       <c r="B173" s="32"/>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" hidden="1">
       <c r="A174" s="32"/>
       <c r="B174" s="32"/>
       <c r="C174" s="34">
@@ -5892,37 +5925,37 @@
         <v>212.867337001647</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" hidden="1">
       <c r="A175" s="32" t="s">
         <v>222</v>
       </c>
       <c r="B175" s="32"/>
       <c r="C175" s="32">
-        <f t="shared" ref="C175:H175" si="37">C61/3</f>
+        <f t="shared" ref="C175:H175" si="38">C61/3</f>
         <v>22.333333333333332</v>
       </c>
       <c r="D175" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>22.333333333333332</v>
       </c>
       <c r="E175" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>37.274999999999999</v>
       </c>
       <c r="F175" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>37.274999999999999</v>
       </c>
       <c r="G175" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>33.074999999999996</v>
       </c>
       <c r="H175" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>33.074999999999996</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" hidden="1">
       <c r="A176" s="32"/>
       <c r="B176" s="32"/>
       <c r="C176" s="32"/>
@@ -5935,7 +5968,7 @@
       <c r="G176" s="32"/>
       <c r="H176" s="32"/>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" hidden="1">
       <c r="A177" s="32"/>
       <c r="B177" s="32"/>
       <c r="C177" s="32"/>
@@ -5945,7 +5978,7 @@
       <c r="G177" s="32"/>
       <c r="H177" s="32"/>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" hidden="1">
       <c r="A178" s="32"/>
       <c r="B178" s="32"/>
       <c r="C178" s="32"/>
@@ -5955,7 +5988,7 @@
       <c r="G178" s="32"/>
       <c r="H178" s="32"/>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" hidden="1">
       <c r="A179" s="32"/>
       <c r="B179" s="32"/>
       <c r="C179" s="32"/>
@@ -5965,38 +5998,38 @@
       <c r="G179" s="32"/>
       <c r="H179" s="32"/>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" hidden="1">
       <c r="A180" s="32"/>
       <c r="B180" s="32"/>
       <c r="C180" s="32">
-        <f t="shared" ref="C180:H180" si="38">8*(C13)^(1/3)</f>
+        <f t="shared" ref="C180:H180" si="39">8*(C13)^(1/3)</f>
         <v>18.937106083236799</v>
       </c>
       <c r="D180" s="32">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>34.74048045920464</v>
       </c>
       <c r="E180" s="32">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>34.74048045920464</v>
       </c>
       <c r="F180" s="32">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>65.823428096464511</v>
       </c>
       <c r="G180" s="32">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>65.823428096464511</v>
       </c>
       <c r="H180" s="32">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>90.300574657320851</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8">
       <c r="B181" s="18"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8">
       <c r="B182" s="18"/>
       <c r="C182" s="7">
         <v>90.950226244343895</v>
@@ -6017,21 +6050,86 @@
         <v>456.81274900398398</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8">
       <c r="B183" s="18"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8">
       <c r="C186">
         <v>461.812749</v>
       </c>
     </row>
+    <row r="190" spans="1:8" ht="15" thickBot="1"/>
+    <row r="191" spans="1:8">
+      <c r="B191" t="s">
+        <v>224</v>
+      </c>
+      <c r="C191" s="55">
+        <v>289.03399668325039</v>
+      </c>
+      <c r="D191" s="56">
+        <v>289.03399668325039</v>
+      </c>
+      <c r="E191" s="55">
+        <v>1831.7745739596803</v>
+      </c>
+      <c r="F191" s="57">
+        <v>1831.7745739596803</v>
+      </c>
+      <c r="G191" s="56">
+        <v>6427.0226961288026</v>
+      </c>
+      <c r="H191" s="57">
+        <v>6427.0226961288026</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="B192" t="s">
+        <v>225</v>
+      </c>
+      <c r="C192" s="58">
+        <v>106.31047796995264</v>
+      </c>
+      <c r="D192" s="59">
+        <v>106.31047796995264</v>
+      </c>
+      <c r="E192" s="58">
+        <v>671.43987059993503</v>
+      </c>
+      <c r="F192" s="60">
+        <v>671.43987059993503</v>
+      </c>
+      <c r="G192" s="59">
+        <v>2348.5646573654913</v>
+      </c>
+      <c r="H192" s="60">
+        <v>2348.5646573654913</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" ht="15" thickBot="1">
+      <c r="B193" t="s">
+        <v>147</v>
+      </c>
+      <c r="C193" s="61">
+        <v>42.111382032175023</v>
+      </c>
+      <c r="D193" s="62">
+        <v>42.111382032175023</v>
+      </c>
+      <c r="E193" s="61">
+        <v>218.54764527814046</v>
+      </c>
+      <c r="F193" s="63">
+        <v>218.54764527814046</v>
+      </c>
+      <c r="G193" s="62">
+        <v>574.27525669408305</v>
+      </c>
+      <c r="H193" s="63">
+        <v>574.27525669408305</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C16:H16"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:D9"/>
@@ -6040,6 +6138,11 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C16:H16"/>
   </mergeCells>
   <conditionalFormatting sqref="K69:Z69">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
@@ -6068,17 +6171,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5525A9B6-F521-4878-BB35-443650BADE72}">
   <dimension ref="A3:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="33" t="str">
         <f>Лист1!A138</f>
         <v>диаметры вершин, мм</v>
@@ -6112,7 +6215,7 @@
         <v>461.81274900398404</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="C5">
         <f>C3-C7</f>
         <v>6</v>
@@ -6138,7 +6241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="33" t="str">
         <f>Лист1!A136</f>
         <v>делительные диаметры, мм</v>
@@ -6172,12 +6275,12 @@
         <v>456.81274900398404</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="K8">
         <v>619.36170212766001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="C9">
         <f>C7-C11</f>
         <v>7.5</v>
@@ -6203,7 +6306,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="33" t="str">
         <f>Лист1!A140</f>
         <v>диаметры впадин, мм</v>
@@ -6237,7 +6340,7 @@
         <v>450.56274900398404</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="C14">
         <v>8.2894953512497782</v>
       </c>
@@ -6257,7 +6360,7 @@
         <v>5.1060031729699729</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="B15" t="s">
         <v>237</v>
       </c>
@@ -6286,7 +6389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="C16">
         <f>C14-C15</f>
         <v>0.28949535124977821</v>
@@ -6312,7 +6415,7 @@
         <v>0.10600317296997286</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8">
       <c r="C17">
         <f>C16*60</f>
         <v>17.369721074986693</v>
@@ -6338,7 +6441,7 @@
         <v>6.3601903781983715</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8">
       <c r="B18" t="s">
         <v>238</v>
       </c>
